--- a/biology/Zoologie/Cleora_injectaria/Cleora_injectaria.xlsx
+++ b/biology/Zoologie/Cleora_injectaria/Cleora_injectaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cleora injectaria est une espèce de lépidoptères (papillons) de la famille des Geometridae.
 On le trouve dans les régions tropicales depuis l'écozone indomalaise et australasienne jusqu'aux îles Fidji et en Nouvelle-Calédonie.
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (29 novembre 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (29 novembre 2020) :
 sous-espèce Cleora injectaria anidryta Prout, 1928
 sous-espèce Cleora injectaria dobboensis Prout, 1929
 sous-espèce Cleora injectaria fuliginosa Warren, 1894
